--- a/xlsx/塞內加爾_intext.xlsx
+++ b/xlsx/塞內加爾_intext.xlsx
@@ -29,7 +29,7 @@
     <t>塞内加尔国旗</t>
   </si>
   <si>
-    <t>政策_政策_美國_塞內加爾</t>
+    <t>体育运动_体育运动_南非_塞內加爾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%86%85%E5%8A%A0%E5%B0%94%E5%9B%BD%E5%BE%BD</t>
